--- a/Data/race_raw_count.xlsx
+++ b/Data/race_raw_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5358A5-78D0-DB4E-8C8C-93567E716C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D5B5A-6046-2B41-819C-D3B2F6DAEBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="25240" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="12700" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>Race</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Hispanic or Latin(x),Asian</t>
-  </si>
-  <si>
-    <t>Hispanic or Latin(x),Asian,Black or African American</t>
   </si>
   <si>
     <t>Hispanic or Latin(x),Black or African American</t>
@@ -116,18 +113,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,12 +138,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -186,13 +185,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3537E7D9-6626-5A48-AD1C-3944178930AE}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3537E7D9-6626-5A48-AD1C-3944178930AE}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C23" xr:uid="{3537E7D9-6626-5A48-AD1C-3944178930AE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="B1:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="B2:B23"/>
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E771E6D4-17AC-F64C-BF6A-8B577428D81A}" name="Race"/>
+    <tableColumn id="1" xr3:uid="{E771E6D4-17AC-F64C-BF6A-8B577428D81A}" name="Race" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1852CC19-22F1-2C40-911D-AD67DF354791}" name="Program"/>
     <tableColumn id="3" xr3:uid="{BFC14AA3-F0EB-0F48-9416-7FEEDE7766F1}" name="n"/>
   </tableColumns>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,30 +511,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -544,8 +544,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -555,8 +555,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -566,8 +566,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -577,8 +577,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -588,8 +588,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -600,153 +600,156 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
